--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8741_sortNullTest.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8741_sortNullTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E4899F-08B8-4523-8534-9F8406823B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="19780" yWindow="2780" windowWidth="16260" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,9 +237,6 @@
     <t>_res_.$Value2$Step1</t>
   </si>
   <si>
-    <t>1, 2, ,</t>
-  </si>
-  <si>
     <t>_res_.$Value2$Step2</t>
   </si>
   <si>
@@ -294,13 +297,16 @@
     <t>_res_.$Value2$Step21</t>
   </si>
   <si>
-    <t>07/12/0080, 07/12/0082, ,</t>
+    <t xml:space="preserve">1, 2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/0080, 07/12/0082, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,23 +369,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -406,7 +410,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -415,14 +419,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,9 +467,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,9 +502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,9 +554,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,536 +746,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="D40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="D42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="D45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="D48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="D50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="D52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="D53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="D54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>71</v>
+      <c r="D58" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1248,24 +1288,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
